--- a/biology/Botanique/Liste_d'arbres_par_continent/Liste_d'arbres_par_continent.xlsx
+++ b/biology/Botanique/Liste_d'arbres_par_continent/Liste_d'arbres_par_continent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_par_continent</t>
+          <t>Liste_d'arbres_par_continent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente une liste d'arbres par continent. De par la relation entre les espèces d'arbres présentes dans une zone et les caractéristiques environnementales et climatologiques de l'écosystème, cette méthode d'organisation s'avère utile pour des recherches. La classification fournit également des informations supplémentaires sur la zone géographique plus restreinte du pays si celles-ci sont disponibles. L'ensemble des familles et des espèces d'arbres sont mélangées au sein de cette liste.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_par_continent</t>
+          <t>Liste_d'arbres_par_continent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbres d'Afrique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Abalé
@@ -746,7 +760,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_par_continent</t>
+          <t>Liste_d'arbres_par_continent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -764,7 +778,9 @@
           <t>Arbres d'Amérique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Datura - Mexique - États-Unis
@@ -1343,7 +1359,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_par_continent</t>
+          <t>Liste_d'arbres_par_continent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1361,7 +1377,9 @@
           <t>Arbres d'Asie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ginkgo biloba- Chine
@@ -1858,7 +1876,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_par_continent</t>
+          <t>Liste_d'arbres_par_continent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1876,7 +1894,9 @@
           <t>Arbres d'Europe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cyprès du Portugal
@@ -2128,7 +2148,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_par_continent</t>
+          <t>Liste_d'arbres_par_continent</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2146,7 +2166,9 @@
           <t>Arbres d'Océanie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acacia à bois dur
